--- a/biology/Zoologie/Ancylostoma/Ancylostoma.xlsx
+++ b/biology/Zoologie/Ancylostoma/Ancylostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancylostoma (ou Ankylostoma) est un genre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire).
 Les Ancylostoma peuvent induire l'ankylostomose.
@@ -512,9 +524,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (23 nov. 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (23 nov. 2018) :
 sous-genre Ancylostoma Dubini, 1843
 sous-genre Ceylancylostoma Lane, 1916</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 nov. 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 nov. 2018) :
 Ancylostoma ailuropodae
 Ancylostoma braziliense
 Ancylostoma caninum
